--- a/TDF_DetailedReleaseNotes.xlsx
+++ b/TDF_DetailedReleaseNotes.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Details" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$L$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Details!$A$1:$M$67</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="180">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -533,6 +533,30 @@
   </si>
   <si>
     <t xml:space="preserve">don't fix this issues because this problem will occur in real study data as well. </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>InProgess</t>
+  </si>
+  <si>
+    <t>Look for a value that represents the concept in codelist</t>
+  </si>
+  <si>
+    <t>Change label to "Planned Order of Element within Arm"</t>
+  </si>
+  <si>
+    <t>Fix, if possible</t>
+  </si>
+  <si>
+    <t>Should be removed</t>
+  </si>
+  <si>
+    <t>Add values to match ARMCD</t>
   </si>
 </sst>
 </file>
@@ -905,13 +929,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,12 +951,13 @@
     <col min="8" max="8" width="24.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="36" style="5" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="10.28515625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -966,10 +992,13 @@
         <v>166</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:13" ht="30" hidden="1">
       <c r="A2" s="6" t="s">
         <v>89</v>
       </c>
@@ -1002,8 +1031,11 @@
       <c r="L2" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
+      <c r="M2" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" hidden="1">
       <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
@@ -1036,8 +1068,11 @@
       <c r="L3" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30">
+      <c r="M3" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" hidden="1">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -1070,8 +1105,11 @@
       <c r="L4" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="30">
+      <c r="M4" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" hidden="1">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -1104,8 +1142,11 @@
       <c r="L5" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="30">
+      <c r="M5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" hidden="1">
       <c r="A6" s="6" t="s">
         <v>89</v>
       </c>
@@ -1138,8 +1179,11 @@
       <c r="L6" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
+      <c r="M6" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" hidden="1">
       <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
@@ -1172,8 +1216,11 @@
       <c r="L7" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="30">
+      <c r="M7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" hidden="1">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -1206,8 +1253,11 @@
       <c r="L8" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M8" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1242,8 +1292,11 @@
       <c r="L9" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M9" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -1278,8 +1331,11 @@
       <c r="L10" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M10" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -1314,8 +1370,11 @@
       <c r="L11" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M11" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -1350,8 +1409,11 @@
       <c r="L12" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M12" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -1386,8 +1448,11 @@
       <c r="L13" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -1422,8 +1487,11 @@
       <c r="L14" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M14" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1458,8 +1526,11 @@
       <c r="L15" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M15" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -1494,8 +1565,11 @@
       <c r="L16" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M16" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -1530,8 +1604,11 @@
       <c r="L17" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M17" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -1566,8 +1643,11 @@
       <c r="L18" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M18" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -1602,8 +1682,11 @@
       <c r="L19" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="30">
+      <c r="M19" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="45" hidden="1">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1638,8 +1721,11 @@
       <c r="L20" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="26.25">
+      <c r="M20" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -1666,8 +1752,17 @@
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="26.25">
+      <c r="K21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1696,8 +1791,17 @@
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="26.25">
+      <c r="K22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="30" hidden="1">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -1726,8 +1830,17 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="30">
+      <c r="K23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" hidden="1">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
@@ -1760,8 +1873,11 @@
       <c r="L24" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="30">
+      <c r="M24" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" hidden="1">
       <c r="A25" s="6" t="s">
         <v>100</v>
       </c>
@@ -1794,8 +1910,11 @@
       <c r="L25" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="30">
+      <c r="M25" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" hidden="1">
       <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
@@ -1828,8 +1947,11 @@
       <c r="L26" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+      <c r="M26" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" hidden="1">
       <c r="A27" s="6" t="s">
         <v>100</v>
       </c>
@@ -1862,8 +1984,11 @@
       <c r="L27" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
+      <c r="M27" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" hidden="1">
       <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
@@ -1896,8 +2021,11 @@
       <c r="L28" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="30">
+      <c r="M28" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" hidden="1">
       <c r="A29" s="6" t="s">
         <v>112</v>
       </c>
@@ -1930,8 +2058,11 @@
       <c r="L29" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="30">
+      <c r="M29" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" hidden="1">
       <c r="A30" s="6" t="s">
         <v>112</v>
       </c>
@@ -1964,8 +2095,11 @@
       <c r="L30" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
+      <c r="M30" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" hidden="1">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -1998,8 +2132,11 @@
       <c r="L31" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="30">
+      <c r="M31" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" hidden="1">
       <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
@@ -2032,8 +2169,11 @@
       <c r="L32" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="30">
+      <c r="M32" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" hidden="1">
       <c r="A33" s="6" t="s">
         <v>112</v>
       </c>
@@ -2066,8 +2206,11 @@
       <c r="L33" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="26.25">
+      <c r="M33" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -2094,8 +2237,14 @@
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="30">
+      <c r="K34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" hidden="1">
       <c r="A35" s="6" t="s">
         <v>116</v>
       </c>
@@ -2129,7 +2278,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -2157,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2185,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -2213,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="51.75">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2242,8 +2391,11 @@
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="51.75">
+      <c r="K39" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -2272,8 +2424,11 @@
       <c r="J40" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="51.75">
+      <c r="K40" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -2302,8 +2457,11 @@
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="51.75">
+      <c r="K41" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="51.75">
       <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
@@ -2332,8 +2490,11 @@
       <c r="J42" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="30">
+      <c r="K42" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" hidden="1">
       <c r="A43" s="6" t="s">
         <v>120</v>
       </c>
@@ -2367,7 +2528,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30">
+    <row r="44" spans="1:13" ht="30" hidden="1">
       <c r="A44" s="6" t="s">
         <v>120</v>
       </c>
@@ -2401,7 +2562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30">
+    <row r="45" spans="1:13" ht="30" hidden="1">
       <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
@@ -2435,7 +2596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="46" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
@@ -2465,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -2495,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="26.25">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="26.25">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -2525,7 +2686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -2553,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -2581,7 +2742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -2609,7 +2770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="52" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
@@ -2637,7 +2798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="53" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -2665,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="54" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -2693,7 +2854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="55" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2721,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="56" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -2749,7 +2910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="57" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -2777,7 +2938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="58" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -2805,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="59" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2833,7 +2994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="60" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
@@ -2861,7 +3022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="61" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2889,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="62" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -2917,7 +3078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="63" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -2947,7 +3108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="26.25">
+    <row r="64" spans="1:12" s="2" customFormat="1" ht="26.25">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -2974,8 +3135,14 @@
       <c r="J64" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="30">
+      <c r="K64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30" hidden="1">
       <c r="A65" s="6" t="s">
         <v>161</v>
       </c>
@@ -3009,7 +3176,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="30">
+    <row r="66" spans="1:12" ht="30" hidden="1">
       <c r="A66" s="6" t="s">
         <v>161</v>
       </c>
@@ -3043,7 +3210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="30">
+    <row r="67" spans="1:12" ht="30" hidden="1">
       <c r="A67" s="6" t="s">
         <v>161</v>
       </c>
@@ -3078,7 +3245,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L67"/>
+  <autoFilter ref="A1:M67">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TI"/>
+        <filter val="TS"/>
+        <filter val="TV"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="TSPARM"/>
+        <filter val="TSPARMCD"/>
+        <filter val="TSPARMCD, TSVAL"/>
+        <filter val="TSVAL, TSPARMCD"/>
+        <filter val="VARIABLE"/>
+        <filter val="Variable, Length"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" location="'Rules'!A162" display="SD1082"/>
     <hyperlink ref="G2" location="'Rules'!A162" display="FDAC036"/>
